--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -347,7 +347,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-12_21-26-01</t>
+    <t>2023-01-12_21-33-52</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>Row</t>
   </si>
@@ -74,7 +74,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C2 C3</t>
+    <t>C2 C3 C6</t>
   </si>
   <si>
     <t>10uF</t>
@@ -83,237 +83,231 @@
     <t>CP_Radial_D5.0mm_P2.00mm</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>CUTCV1 CUTOFF1 Res1</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>Pot-bourns-alpha</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>CUTCV1 CUTOFF1 Res1</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>Pot-bourns-alpha</t>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D5 D6 D7</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D2 D3 D4 D5 D6 D7</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>LED-12V</t>
+  </si>
+  <si>
+    <t>LED_D4.0mm</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>LED-12V</t>
-  </si>
-  <si>
-    <t>LED_D4.0mm</t>
+    <t>FB1 FB2</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>L_Axial_L9.5mm_D4.0mm_P12.70mm_Horizontal_Fastron_SMCC</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>FB1 FB2</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>L_Axial_L9.5mm_D4.0mm_P12.70mm_Horizontal_Fastron_SMCC</t>
+    <t>Audio Jack, 2 Poles (Mono / TS), Switched Pole (Normalling)</t>
+  </si>
+  <si>
+    <t>J6 J7 J8</t>
+  </si>
+  <si>
+    <t>FilterCV1</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Audio Jack, 2 Poles (Mono / TS), Switched Pole (Normalling)</t>
-  </si>
-  <si>
-    <t>J6 J7 J8</t>
-  </si>
-  <si>
-    <t>FilterCV1</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
+    <t>Generic connector, single row, 01x10, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Power Input</t>
+  </si>
+  <si>
+    <t>IDC-Header_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x10, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Power Input</t>
-  </si>
-  <si>
-    <t>IDC-Header_2x05_P2.54mm_Vertical</t>
+    <t>0.1A Ic, 30V Vce, PNP Small Signal Transistor, TO-92</t>
+  </si>
+  <si>
+    <t>Q1 Q2</t>
+  </si>
+  <si>
+    <t>BC559</t>
+  </si>
+  <si>
+    <t>TO-92_Inline_Wide</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>0.1A Ic, 30V Vce, PNP Small Signal Transistor, TO-92</t>
-  </si>
-  <si>
-    <t>Q1 Q2</t>
-  </si>
-  <si>
-    <t>BC559</t>
-  </si>
-  <si>
-    <t>TO-92_Inline_Wide</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1 R3 R12 R13</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P10.16mm_Horizontal</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1 R3 R12 R13</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P10.16mm_Horizontal</t>
+    <t>R8 R21 R22</t>
+  </si>
+  <si>
+    <t>1k</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>R8 R21 R22</t>
-  </si>
-  <si>
-    <t>1k</t>
+    <t>R10 R19</t>
+  </si>
+  <si>
+    <t>1.8k</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>R10 R19</t>
-  </si>
-  <si>
-    <t>1.8k</t>
+    <t>R4 R5 R9 R20</t>
+  </si>
+  <si>
+    <t>2.2k</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>R4 R5 R9 R20</t>
-  </si>
-  <si>
-    <t>2.2k</t>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>33k</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>33k</t>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>56k</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>56k</t>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>82k</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>82k</t>
+    <t>R2 R6 R7 R11 R15 R16</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>R2 R6 R7 R11 R15 R16</t>
+    <t>ResLv1</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>Potentiometer_Bourns_3386C_Horizontal</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>ResLv1</t>
-  </si>
-  <si>
-    <t>3.3k</t>
-  </si>
-  <si>
-    <t>Potentiometer_Bourns_3386C_Horizontal</t>
+    <t>ResVol1</t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>ResVol1</t>
-  </si>
-  <si>
-    <t>10k</t>
+    <t>Momentary Switch, dual pole double throw</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Hpass/Lpass Switch</t>
+  </si>
+  <si>
+    <t>SW_DPDT_Toggle</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Momentary Switch, dual pole double throw</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>Hpass/Lpass Switch</t>
-  </si>
-  <si>
-    <t>SW_DPDT_Toggle</t>
+    <t>Dual Operational Transconductance Amplifiers with Linearizing Diodes and Buffers, DIP-16/SOIC-16</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>LM13700</t>
+  </si>
+  <si>
+    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Dual Operational Transconductance Amplifiers with Linearizing Diodes and Buffers, DIP-16/SOIC-16</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>LM13700</t>
-  </si>
-  <si>
-    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Dual Low-Noise JFET-Input Operational Amplifiers, DIP-8/SOIC-8</t>
   </si>
   <si>
@@ -347,7 +341,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-12_21-33-52</t>
+    <t>2023-01-13_16-52-46</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -541,49 +535,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -880,7 +831,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -890,81 +841,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="3">
         <v>55</v>
       </c>
     </row>
@@ -1054,7 +1007,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -1071,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
@@ -1085,22 +1038,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1108,22 +1061,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>13</v>
@@ -1131,22 +1084,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -1154,68 +1107,68 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30.0" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30.0" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>13</v>
@@ -1223,22 +1176,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>13</v>
@@ -1246,22 +1199,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>13</v>
@@ -1269,22 +1222,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>13</v>
@@ -1292,22 +1245,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>13</v>
@@ -1315,22 +1268,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -1338,19 +1291,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>7</v>
@@ -1361,19 +1314,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>7</v>
@@ -1384,22 +1337,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>13</v>
@@ -1409,20 +1362,20 @@
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>56</v>
+      <c r="B27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -1430,19 +1383,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>7</v>
@@ -1453,19 +1406,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>7</v>
@@ -1474,21 +1427,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="30.0" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>7</v>
@@ -1499,19 +1452,19 @@
     </row>
     <row r="31" spans="1:7" ht="30.0" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>7</v>
@@ -1520,36 +1473,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30.0" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1566,22 +1495,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -263,7 +263,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>Potentiometer_Bourns_3386X_Horizontal</t>
+    <t>Potentiometer_Bourns_3386C_Horizontal</t>
   </si>
   <si>
     <t>20</t>
@@ -332,7 +332,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-15_17-05-46</t>
+    <t>2023-02-18_14-54-23</t>
   </si>
   <si>
     <t>KiCad Version:</t>
